--- a/AAII_Financials/Yearly/TSN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TSN_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/TSN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TSN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,169 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43372</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42644</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42280</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41909</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41545</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41181</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40817</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>43185000</v>
+      </c>
+      <c r="E8" s="3">
         <v>42405000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40052000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>38260000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>36881000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>41373000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37580000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34374000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33055000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32032000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>37284000</v>
+      </c>
+      <c r="E9" s="3">
         <v>37383000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>34956000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>33142000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>32184000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>37456000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>34895000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>32016000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>61983000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>59904000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5901000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5022000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5096000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5118000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4697000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3917000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2685000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2358000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-28928000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-27872000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,8 +841,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +874,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,23 +910,26 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-14000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>59000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>150000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -920,15 +940,18 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>167000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -959,9 +982,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,74 +998,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>39955000</v>
+      </c>
+      <c r="E17" s="3">
         <v>39523000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37020000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35329000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34048000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39204000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36150000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32999000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31769000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30743000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3230000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2882000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3032000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2931000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2833000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2169000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1430000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1375000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1286000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1289000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,173 +1086,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E20" s="3">
         <v>11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>63000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-24000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>14000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>45000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-46000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>27000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>224000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>266000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4447000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3991000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4038000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3668000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3552000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2925000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1914000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1921000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2009000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2061000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>485000</v>
+      </c>
+      <c r="E22" s="3">
         <v>462000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>350000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>279000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>249000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>293000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>132000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>145000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>545000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>477000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2770000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2431000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2745000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2628000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2598000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1921000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1252000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1257000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>965000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1078000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>620000</v>
+      </c>
+      <c r="E24" s="3">
         <v>396000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>722000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>850000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>826000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>697000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>396000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>409000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>351000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>340000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1250,75 +1299,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2150000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2035000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2023000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1778000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1772000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1224000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>856000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>848000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>614000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>738000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2140000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2022000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2020000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1774000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1768000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1220000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>864000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>848000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>621000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>755000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1349,42 +1407,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>1004000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-70000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-38000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-5000</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1415,9 +1479,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1448,75 +1515,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-63000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>24000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-14000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-45000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>46000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-27000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-224000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-266000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2140000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2022000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3024000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1774000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1768000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1220000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>864000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>778000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>583000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>750000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1547,80 +1623,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2140000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2022000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3024000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1774000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1768000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1220000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>864000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>778000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>583000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>750000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43372</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42644</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42280</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41909</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41545</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41181</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40817</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +1719,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,41 +1735,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1420000</v>
+      </c>
+      <c r="E41" s="3">
         <v>484000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>270000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>318000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>349000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>688000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>438000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1145000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1071000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>716000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1714,141 +1804,156 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1952000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2173000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1723000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1675000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1542000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1620000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1684000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1497000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1378000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1321000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4144000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4108000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3513000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3239000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2732000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2878000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3274000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2817000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2809000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2587000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E45" s="3">
         <v>404000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>182000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1026000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>265000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>195000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>825000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>145000</v>
       </c>
       <c r="K45" s="3">
         <v>145000</v>
       </c>
       <c r="L45" s="3">
+        <v>145000</v>
+      </c>
+      <c r="M45" s="3">
         <v>156000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7883000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7169000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5688000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6258000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4888000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5381000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6221000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5604000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5403000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4780000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1879,75 +1984,84 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8128000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7282000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6169000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5568000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5170000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5176000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5130000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4053000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4022000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3823000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17673000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17881000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16498000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15567000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11753000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11835000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11982000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2040000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2020000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2041000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,9 +2092,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2011,42 +2128,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1057000</v>
+      </c>
+      <c r="E52" s="3">
         <v>765000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>754000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>673000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>562000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>612000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>623000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>480000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>451000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>427000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2077,42 +2200,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34741000</v>
+      </c>
+      <c r="E54" s="3">
         <v>33097000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29109000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28066000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22373000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23004000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23956000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12177000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11896000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11071000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2255,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,206 +2271,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1876000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1926000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1694000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1698000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1511000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1662000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1806000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1359000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1372000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1264000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>548000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2102000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1911000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>906000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>79000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>715000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>643000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>513000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>515000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>70000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1810000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1485000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1426000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1428000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1172000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1158000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1348000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1138000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>943000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1040000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4234000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5513000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5031000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4032000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2762000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3535000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3797000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3010000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2830000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2374000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10791000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9830000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7962000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9297000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6200000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6010000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7535000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1895000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1917000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2112000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4119000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3528000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3305000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4178000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3787000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3753000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3720000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1039000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1107000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>900000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +2520,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2404,9 +2556,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2437,42 +2592,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19276000</v>
+      </c>
+      <c r="E66" s="3">
         <v>19015000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16306000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17525000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12765000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13313000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15066000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5976000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5884000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5414000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,8 +2647,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,9 +2680,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,9 +2716,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2584,9 +2752,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2617,42 +2788,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15311000</v>
+      </c>
+      <c r="E72" s="3">
         <v>13787000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12329000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9776000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8348000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6813000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5748000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4999000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4327000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3801000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +2860,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2716,9 +2896,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2749,42 +2932,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15465000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14082000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12803000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10541000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9608000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9691000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8890000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6201000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6011000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5657000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2815,80 +3004,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43372</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42644</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42280</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41909</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41545</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41181</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40817</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2140000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2022000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3024000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1774000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1768000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1220000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>864000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>778000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>583000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>750000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2902,41 +3100,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1192000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1098000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>943000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>761000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>705000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>711000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>530000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>519000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>499000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>506000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2967,9 +3169,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,9 +3205,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,9 +3241,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3066,9 +3277,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,42 +3313,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3874000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2513000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2963000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2599000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2716000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2570000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1178000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1314000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1187000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1046000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,41 +3368,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1199000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1259000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1069000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-695000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-854000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-632000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-558000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-690000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-643000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3213,9 +3437,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3246,42 +3473,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1423000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3464000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1906000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4164000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-684000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-270000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8800000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-643000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-660000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-644000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3295,41 +3528,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-601000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-537000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-431000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-319000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-216000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-147000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-104000</v>
       </c>
       <c r="J96" s="3">
         <v>-104000</v>
       </c>
       <c r="K96" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-57000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-59000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3360,9 +3597,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,9 +3633,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,106 +3669,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1468000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1171000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1102000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1530000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2377000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2035000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6915000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-600000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-171000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-658000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-15000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>982000</v>
+      </c>
+      <c r="E102" s="3">
         <v>214000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-48000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-339000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>250000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-707000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>74000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>355000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-262000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TSN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TSN_YR_FIN.xlsx
@@ -666,7 +666,8 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -763,10 +764,10 @@
         <v>37284000</v>
       </c>
       <c r="E9" s="3">
-        <v>37383000</v>
+        <v>74766000</v>
       </c>
       <c r="F9" s="3">
-        <v>34956000</v>
+        <v>69912000</v>
       </c>
       <c r="G9" s="3">
         <v>33142000</v>
@@ -799,10 +800,10 @@
         <v>5901000</v>
       </c>
       <c r="E10" s="3">
-        <v>5022000</v>
+        <v>-32361000</v>
       </c>
       <c r="F10" s="3">
-        <v>5096000</v>
+        <v>-29860000</v>
       </c>
       <c r="G10" s="3">
         <v>5118000</v>
@@ -1005,13 +1006,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>39955000</v>
+        <v>40061000</v>
       </c>
       <c r="E17" s="3">
-        <v>39523000</v>
+        <v>39635000</v>
       </c>
       <c r="F17" s="3">
-        <v>37020000</v>
+        <v>37083000</v>
       </c>
       <c r="G17" s="3">
         <v>35329000</v>
@@ -1041,13 +1042,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3230000</v>
+        <v>3124000</v>
       </c>
       <c r="E18" s="3">
-        <v>2882000</v>
+        <v>2770000</v>
       </c>
       <c r="F18" s="3">
-        <v>3032000</v>
+        <v>2969000</v>
       </c>
       <c r="G18" s="3">
         <v>2931000</v>
@@ -1096,7 +1097,7 @@
         <v>25000</v>
       </c>
       <c r="E20" s="3">
-        <v>11000</v>
+        <v>66000</v>
       </c>
       <c r="F20" s="3">
         <v>63000</v>
@@ -1129,13 +1130,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4447000</v>
+        <v>4341000</v>
       </c>
       <c r="E21" s="3">
-        <v>3991000</v>
+        <v>3934000</v>
       </c>
       <c r="F21" s="3">
-        <v>4038000</v>
+        <v>3975000</v>
       </c>
       <c r="G21" s="3">
         <v>3668000</v>
@@ -1201,13 +1202,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2770000</v>
+        <v>2664000</v>
       </c>
       <c r="E23" s="3">
-        <v>2431000</v>
+        <v>2374000</v>
       </c>
       <c r="F23" s="3">
-        <v>2745000</v>
+        <v>2682000</v>
       </c>
       <c r="G23" s="3">
         <v>2628000</v>
@@ -1237,13 +1238,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>620000</v>
+        <v>593000</v>
       </c>
       <c r="E24" s="3">
-        <v>396000</v>
+        <v>381000</v>
       </c>
       <c r="F24" s="3">
-        <v>722000</v>
+        <v>-291000</v>
       </c>
       <c r="G24" s="3">
         <v>850000</v>
@@ -1309,13 +1310,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2150000</v>
+        <v>2071000</v>
       </c>
       <c r="E26" s="3">
-        <v>2035000</v>
+        <v>1993000</v>
       </c>
       <c r="F26" s="3">
-        <v>2023000</v>
+        <v>2973000</v>
       </c>
       <c r="G26" s="3">
         <v>1778000</v>
@@ -1345,13 +1346,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2140000</v>
+        <v>2061000</v>
       </c>
       <c r="E27" s="3">
-        <v>2022000</v>
+        <v>1980000</v>
       </c>
       <c r="F27" s="3">
-        <v>2020000</v>
+        <v>2970000</v>
       </c>
       <c r="G27" s="3">
         <v>1774000</v>
@@ -1528,7 +1529,7 @@
         <v>-25000</v>
       </c>
       <c r="E32" s="3">
-        <v>-11000</v>
+        <v>-66000</v>
       </c>
       <c r="F32" s="3">
         <v>-63000</v>
@@ -1561,13 +1562,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2140000</v>
+        <v>2061000</v>
       </c>
       <c r="E33" s="3">
-        <v>2022000</v>
+        <v>1980000</v>
       </c>
       <c r="F33" s="3">
-        <v>3024000</v>
+        <v>3974000</v>
       </c>
       <c r="G33" s="3">
         <v>1774000</v>
@@ -1633,13 +1634,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2140000</v>
+        <v>2061000</v>
       </c>
       <c r="E35" s="3">
-        <v>2022000</v>
+        <v>1980000</v>
       </c>
       <c r="F35" s="3">
-        <v>3024000</v>
+        <v>3974000</v>
       </c>
       <c r="G35" s="3">
         <v>1774000</v>
@@ -1850,10 +1851,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4144000</v>
+        <v>3859000</v>
       </c>
       <c r="E44" s="3">
-        <v>4108000</v>
+        <v>3929000</v>
       </c>
       <c r="F44" s="3">
         <v>3513000</v>
@@ -1922,10 +1923,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7883000</v>
+        <v>7598000</v>
       </c>
       <c r="E46" s="3">
-        <v>7169000</v>
+        <v>6990000</v>
       </c>
       <c r="F46" s="3">
         <v>5688000</v>
@@ -2033,7 +2034,7 @@
         <v>17673000</v>
       </c>
       <c r="E49" s="3">
-        <v>17881000</v>
+        <v>21959000</v>
       </c>
       <c r="F49" s="3">
         <v>16498000</v>
@@ -2210,10 +2211,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34741000</v>
+        <v>34456000</v>
       </c>
       <c r="E54" s="3">
-        <v>33097000</v>
+        <v>32918000</v>
       </c>
       <c r="F54" s="3">
         <v>29109000</v>
@@ -2458,10 +2459,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4119000</v>
+        <v>4045000</v>
       </c>
       <c r="E62" s="3">
-        <v>3528000</v>
+        <v>3481000</v>
       </c>
       <c r="F62" s="3">
         <v>3305000</v>
@@ -2602,10 +2603,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19276000</v>
+        <v>19202000</v>
       </c>
       <c r="E66" s="3">
-        <v>19015000</v>
+        <v>18968000</v>
       </c>
       <c r="F66" s="3">
         <v>16306000</v>
@@ -2798,10 +2799,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15311000</v>
+        <v>15100000</v>
       </c>
       <c r="E72" s="3">
-        <v>13787000</v>
+        <v>13655000</v>
       </c>
       <c r="F72" s="3">
         <v>12329000</v>
@@ -2942,10 +2943,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15465000</v>
+        <v>15254000</v>
       </c>
       <c r="E76" s="3">
-        <v>14082000</v>
+        <v>13950000</v>
       </c>
       <c r="F76" s="3">
         <v>12803000</v>
@@ -3055,13 +3056,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2140000</v>
+        <v>2061000</v>
       </c>
       <c r="E81" s="3">
-        <v>2022000</v>
+        <v>1980000</v>
       </c>
       <c r="F81" s="3">
-        <v>3024000</v>
+        <v>3974000</v>
       </c>
       <c r="G81" s="3">
         <v>1774000</v>

--- a/AAII_Financials/Yearly/TSN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TSN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43372</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42644</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42280</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41909</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41545</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41181</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40817</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>47049000</v>
+      </c>
+      <c r="E8" s="3">
         <v>43185000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>42405000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40052000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38260000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>36881000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>41373000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37580000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34374000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33055000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32032000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>39404000</v>
+      </c>
+      <c r="E9" s="3">
         <v>37284000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>74766000</v>
       </c>
-      <c r="F9" s="3">
-        <v>69912000</v>
-      </c>
       <c r="G9" s="3">
+        <v>104805000</v>
+      </c>
+      <c r="H9" s="3">
         <v>33142000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>32184000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>37456000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>34895000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32016000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>61983000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>59904000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7645000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5901000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-32361000</v>
       </c>
-      <c r="F10" s="3">
-        <v>-29860000</v>
-      </c>
       <c r="G10" s="3">
+        <v>-64753000</v>
+      </c>
+      <c r="H10" s="3">
         <v>5118000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4697000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3917000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2685000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2358000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-28928000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-27872000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -843,8 +856,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,9 +892,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -914,26 +931,29 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1119000</v>
+      </c>
+      <c r="E14" s="3">
         <v>501000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-14000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>59000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>150000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -944,15 +964,18 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>167000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -986,9 +1009,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1000,80 +1026,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>42653000</v>
+      </c>
+      <c r="E17" s="3">
         <v>40061000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>39635000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37083000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35329000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34048000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39204000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>36150000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32999000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31769000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30743000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4396000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3124000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2770000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2969000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2931000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2833000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2169000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1430000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1375000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1286000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1289000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1088,188 +1121,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E20" s="3">
         <v>25000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>66000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>63000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-24000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>14000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>45000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-46000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>224000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>266000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5683000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4341000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3934000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3975000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3668000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3552000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2925000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1914000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1921000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2009000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2061000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>428000</v>
+      </c>
+      <c r="E22" s="3">
         <v>485000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>462000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>350000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>279000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>249000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>293000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>132000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>145000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>545000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>477000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4041000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2664000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2374000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2682000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2628000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2598000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1921000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1252000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1257000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>965000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1078000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>981000</v>
+      </c>
+      <c r="E24" s="3">
         <v>593000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>381000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-291000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>850000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>826000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>697000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>396000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>409000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>351000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>340000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1303,81 +1352,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3060000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2071000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1993000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2973000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1778000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1772000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1224000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>856000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>848000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>614000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>738000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3047000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2061000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1980000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2970000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1774000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1768000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1220000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>864000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>848000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>621000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>755000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1411,9 +1469,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,33 +1484,36 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>1004000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-70000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-38000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-5000</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1483,9 +1547,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1519,81 +1586,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-25000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-66000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-63000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>24000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-14000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-45000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>46000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-224000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-266000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3047000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2061000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1980000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3974000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1774000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1768000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1220000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>864000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>778000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>583000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>750000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1627,86 +1703,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3047000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2061000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1980000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3974000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1774000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1768000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1220000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>864000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>778000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>583000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>750000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43372</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42644</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42280</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41909</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41545</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41181</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40817</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1721,8 +1806,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1737,44 +1823,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2507000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1420000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>484000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>270000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>318000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>349000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>688000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>438000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1145000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1071000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>716000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1808,153 +1898,168 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1952000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2173000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1723000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1675000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1542000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1620000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1684000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1497000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1378000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1321000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4382000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3859000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3929000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3513000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3239000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2732000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2878000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3274000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2817000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2809000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2587000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>533000</v>
+      </c>
+      <c r="E45" s="3">
         <v>367000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>404000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>182000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1026000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>265000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>195000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>825000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>145000</v>
       </c>
       <c r="L45" s="3">
         <v>145000</v>
       </c>
       <c r="M45" s="3">
+        <v>145000</v>
+      </c>
+      <c r="N45" s="3">
         <v>156000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9822000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7598000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6990000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5688000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6258000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4888000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5381000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6221000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5604000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5403000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4780000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1988,81 +2093,90 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8368000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8128000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7282000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6169000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5568000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5170000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5176000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5130000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4053000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4022000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3823000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17068000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17673000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>21959000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16498000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>15567000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11753000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11835000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11982000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2040000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2020000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2041000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2096,9 +2210,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2132,45 +2249,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1051000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1057000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>765000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>754000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>673000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>562000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>612000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>623000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>480000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>451000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>427000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2204,45 +2327,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36309000</v>
+      </c>
+      <c r="E54" s="3">
         <v>34456000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32918000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29109000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28066000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22373000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23004000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23956000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12177000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11896000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11071000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2257,8 +2386,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2273,224 +2403,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2225000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1876000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1926000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1694000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1698000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1511000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1662000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1806000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1359000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1372000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1264000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1067000</v>
+      </c>
+      <c r="E58" s="3">
         <v>548000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2102000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1911000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>906000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>79000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>715000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>643000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>513000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>515000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>70000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3033000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1810000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1485000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1426000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1428000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1172000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1158000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1348000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1138000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>943000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1040000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6325000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4234000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5513000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5031000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4032000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2762000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3535000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3797000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3010000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2830000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2374000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8281000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10791000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9830000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7962000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9297000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6200000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6010000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7535000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1895000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1917000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2112000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3849000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4045000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3481000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3305000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4178000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3787000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3753000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3720000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1039000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1107000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>900000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2524,9 +2673,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2560,9 +2712,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2596,45 +2751,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18586000</v>
+      </c>
+      <c r="E66" s="3">
         <v>19202000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18968000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16306000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17525000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12765000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13313000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15066000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5976000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5884000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5414000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2649,8 +2810,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2684,9 +2846,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2720,9 +2885,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2756,9 +2924,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2792,45 +2963,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17502000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15100000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13655000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12329000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9776000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8348000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6813000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5748000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4999000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4327000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3801000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2864,9 +3041,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2900,9 +3080,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2936,45 +3119,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17723000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15254000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13950000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12803000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10541000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9608000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9691000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8890000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6201000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6011000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5657000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3008,86 +3197,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43372</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42644</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42280</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41909</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41545</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41181</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40817</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3047000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2061000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1980000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3974000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1774000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1768000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1220000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>864000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>778000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>583000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>750000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3102,44 +3300,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1214000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1192000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1098000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>943000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>761000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>705000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>711000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>530000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>519000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>499000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>506000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3173,9 +3375,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3209,9 +3414,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3245,9 +3453,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3281,9 +3492,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3317,45 +3531,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3840000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3874000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2513000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2963000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2599000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2716000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2570000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1178000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1314000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1187000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1046000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3370,44 +3590,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1209000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1199000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1259000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1069000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-695000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-854000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-632000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-558000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-690000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-643000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3441,9 +3665,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3477,45 +3704,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1423000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3464000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1906000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4164000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-684000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-270000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8800000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-643000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-660000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-644000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3530,44 +3763,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-636000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-601000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-537000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-431000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-319000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-216000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-147000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-104000</v>
       </c>
       <c r="K96" s="3">
         <v>-104000</v>
       </c>
       <c r="L96" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-57000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-59000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3601,9 +3838,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3637,9 +3877,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3673,115 +3916,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2731000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1468000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1171000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1102000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1530000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2377000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2035000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6915000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-171000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-658000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-15000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1171000</v>
+      </c>
+      <c r="E102" s="3">
         <v>982000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>214000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-48000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-339000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>250000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-707000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>74000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>355000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-262000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TSN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TSN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,195 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44107</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43372</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42644</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42280</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41909</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41545</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41181</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40817</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>53282000</v>
+      </c>
+      <c r="E8" s="3">
         <v>47049000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>43185000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>42405000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>40052000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38260000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>36881000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>41373000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37580000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34374000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33055000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32032000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>46614000</v>
+      </c>
+      <c r="E9" s="3">
         <v>39404000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37284000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>74766000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>104805000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>33142000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>32184000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>37456000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>34895000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32016000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>61983000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>59904000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6668000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7645000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5901000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-32361000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-64753000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5118000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4697000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3917000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2685000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2358000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-28928000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-27872000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,8 +869,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,9 +908,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -934,29 +950,32 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>1119000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>501000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-14000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>59000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>150000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -967,15 +986,18 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>167000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1012,9 +1034,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1027,86 +1052,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>48872000</v>
+      </c>
+      <c r="E17" s="3">
         <v>42653000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>40061000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>39635000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37083000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35329000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34048000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>39204000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36150000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32999000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>31769000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>30743000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4410000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4396000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3124000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2770000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2969000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2931000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2833000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2169000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1430000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1375000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1286000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1289000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1122,203 +1154,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E20" s="3">
         <v>73000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>25000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>66000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>63000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-24000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>45000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-46000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>27000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>224000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>266000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5716000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5683000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4341000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3934000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3975000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3668000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3552000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2925000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1914000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1921000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2009000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2061000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E22" s="3">
         <v>428000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>485000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>462000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>350000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>279000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>249000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>293000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>132000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>145000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>545000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>477000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4149000</v>
+      </c>
+      <c r="E23" s="3">
         <v>4041000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2664000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2374000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2682000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2628000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2598000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1921000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1252000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1257000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>965000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1078000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900000</v>
+      </c>
+      <c r="E24" s="3">
         <v>981000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>593000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>381000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-291000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>850000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>826000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>697000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>396000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>409000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>351000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>340000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1355,87 +1403,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3249000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3060000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2071000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1993000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2973000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1778000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1772000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1224000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>856000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>848000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>614000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>738000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3238000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3047000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2061000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1980000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2970000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1774000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1768000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1220000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>864000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>848000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>621000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>755000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1472,9 +1529,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,33 +1547,36 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>1004000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-70000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-38000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-5000</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1550,9 +1613,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1589,87 +1655,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-73000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-25000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-66000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-63000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>24000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-45000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>46000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-27000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-224000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-266000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3238000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3047000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2061000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1980000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3974000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1774000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1768000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1220000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>864000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>778000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>583000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>750000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1706,92 +1781,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3238000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3047000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2061000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1980000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3974000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1774000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1768000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1220000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>864000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>778000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>583000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>750000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44107</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43372</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42644</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42280</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41909</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41545</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41181</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40817</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1807,8 +1891,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1824,47 +1909,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1031000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2507000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1420000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>484000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>270000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>318000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>349000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>688000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>438000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1145000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1071000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>716000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1901,165 +1990,180 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2577000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2400000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1952000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2173000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1723000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1675000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1542000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1620000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1684000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1497000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1378000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1321000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5514000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4382000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3859000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3929000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3513000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3239000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2732000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2878000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3274000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2817000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2809000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2587000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>508000</v>
+      </c>
+      <c r="E45" s="3">
         <v>533000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>367000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>404000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>182000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1026000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>265000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>195000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>825000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>145000</v>
       </c>
       <c r="M45" s="3">
         <v>145000</v>
       </c>
       <c r="N45" s="3">
+        <v>145000</v>
+      </c>
+      <c r="O45" s="3">
         <v>156000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9630000</v>
+      </c>
+      <c r="E46" s="3">
         <v>9822000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7598000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6990000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5688000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6258000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4888000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5381000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6221000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5604000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5403000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4780000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2096,87 +2200,96 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9192000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8368000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8128000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7282000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6169000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5568000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5170000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5176000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5130000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4053000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4022000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3823000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16765000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17068000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17673000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>21959000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16498000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15567000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11753000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11835000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11982000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2040000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2020000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2041000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2213,9 +2326,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2252,48 +2368,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1051000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1057000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>765000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>754000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>673000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>562000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>612000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>623000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>480000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>451000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>427000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2330,48 +2452,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36821000</v>
+      </c>
+      <c r="E54" s="3">
         <v>36309000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34456000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>32918000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29109000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28066000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22373000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23004000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23956000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12177000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11896000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11071000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2387,8 +2515,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2404,242 +2533,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2483000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2225000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1876000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1926000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1694000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1698000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1511000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1662000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1806000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1359000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1372000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1264000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>459000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1067000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>548000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2102000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1911000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>906000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>79000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>715000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>643000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>513000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>515000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>70000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2371000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3033000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1810000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1485000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1426000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1428000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1172000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1158000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1348000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1138000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>943000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1040000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5313000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6325000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4234000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5513000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5031000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4032000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2762000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3535000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3797000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3010000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2830000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2374000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7862000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8281000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10791000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9830000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7962000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9297000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6200000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6010000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7535000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1895000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1917000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2112000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3835000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3849000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4045000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3481000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3305000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4178000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3787000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3753000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3720000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1039000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1107000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>900000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2676,9 +2824,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2715,9 +2866,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2754,48 +2908,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17119000</v>
+      </c>
+      <c r="E66" s="3">
         <v>18586000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19202000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18968000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16306000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17525000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12765000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13313000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15066000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5976000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5884000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5414000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2811,8 +2971,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2849,9 +3010,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2888,9 +3052,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2927,9 +3094,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2966,48 +3136,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20084000</v>
+      </c>
+      <c r="E72" s="3">
         <v>17502000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15100000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13655000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12329000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9776000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8348000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6813000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5748000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4999000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4327000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3801000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3044,9 +3220,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3083,9 +3262,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3122,48 +3304,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19702000</v>
+      </c>
+      <c r="E76" s="3">
         <v>17723000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15254000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13950000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12803000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10541000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9608000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9691000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8890000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6201000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6011000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5657000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3200,92 +3388,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44107</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43372</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42644</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42280</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41909</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41545</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41181</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40817</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3238000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3047000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2061000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1980000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3974000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1774000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1768000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1220000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>864000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>778000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>583000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>750000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3301,47 +3498,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1202000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1214000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1192000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1098000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>943000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>761000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>705000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>711000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>530000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>519000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>499000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>506000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3378,9 +3579,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3417,9 +3621,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3456,9 +3663,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3495,9 +3705,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3534,48 +3747,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2687000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3840000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3874000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2513000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2963000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2599000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2716000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2570000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1178000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1314000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1187000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1046000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3591,47 +3810,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1887000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1209000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1199000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1259000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1069000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-695000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-854000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-632000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-558000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-690000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-643000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3668,9 +3891,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3707,48 +3933,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1935000</v>
+      </c>
+      <c r="E94" s="3">
         <v>58000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1423000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3464000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1906000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4164000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-684000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-270000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8800000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-643000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-660000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-644000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3764,47 +3996,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-653000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-636000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-601000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-537000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-431000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-319000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-216000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-147000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-104000</v>
       </c>
       <c r="L96" s="3">
         <v>-104000</v>
       </c>
       <c r="M96" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-57000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-59000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3841,9 +4077,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3880,9 +4119,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3919,124 +4161,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2323000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2731000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1468000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1171000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1102000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1530000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2377000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2035000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6915000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-600000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-171000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-658000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-15000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6000</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1606000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1171000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>982000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>214000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-48000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-31000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-339000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>250000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-707000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>74000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>355000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-262000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TSN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TSN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,208 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44107</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42644</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42280</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41909</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41545</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41181</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40817</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>52881000</v>
+      </c>
+      <c r="E8" s="3">
         <v>53282000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>47049000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43185000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>42405000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>40052000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38260000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>36881000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>41373000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37580000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34374000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33055000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32032000</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>49954000</v>
+      </c>
+      <c r="E9" s="3">
         <v>46614000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>39404000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37284000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>74766000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>104805000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>33142000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>32184000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37456000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>34895000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>32016000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>61983000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>59904000</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2927000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6668000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7645000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5901000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-32361000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-64753000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5118000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4697000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3917000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2685000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2358000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-28928000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-27872000</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,9 +925,12 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -953,32 +970,35 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>1150000</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1119000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>501000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-14000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>59000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>150000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -989,15 +1009,18 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>167000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7000</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1037,9 +1060,12 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1053,92 +1079,99 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>53254000</v>
+      </c>
+      <c r="E17" s="3">
         <v>48872000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>42653000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>40061000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>39635000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37083000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>35329000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34048000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>39204000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36150000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32999000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>31769000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>30743000</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-373000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4410000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4396000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3124000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2770000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2969000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2931000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2833000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2169000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1430000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1375000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1286000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1289000</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1155,218 +1188,234 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E20" s="3">
         <v>104000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>73000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>25000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>66000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>63000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-24000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>45000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-46000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>27000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>224000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>266000</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1016000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5716000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5683000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4341000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3934000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3975000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3668000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3552000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2925000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1914000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1921000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2009000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2061000</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>355000</v>
+      </c>
+      <c r="E22" s="3">
         <v>365000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>428000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>485000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>462000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>350000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>279000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>249000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>293000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>132000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>145000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>545000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>477000</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-678000</v>
+      </c>
+      <c r="E23" s="3">
         <v>4149000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4041000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2664000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2374000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2682000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2628000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2598000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1921000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1252000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1257000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>965000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1078000</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E24" s="3">
         <v>900000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>981000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>593000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>381000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-291000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>850000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>826000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>697000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>396000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>409000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>351000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>340000</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1406,93 +1455,102 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-649000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3249000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3060000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2071000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1993000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2973000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1778000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1772000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1224000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>856000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>848000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>614000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>738000</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-648000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3238000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3047000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2061000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1980000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2970000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1774000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1768000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1220000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>864000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>848000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>621000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>755000</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1532,9 +1590,12 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,33 +1611,36 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>1004000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-70000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-38000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-5000</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1616,9 +1680,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1658,93 +1725,102 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-104000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-73000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-25000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-66000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-63000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>24000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-45000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>46000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-27000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-224000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-266000</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-648000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3238000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3047000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2061000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1980000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3974000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1774000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1768000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1220000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>864000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>778000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>583000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>750000</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1784,98 +1860,107 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-648000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3238000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3047000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2061000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1980000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3974000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1774000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1768000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1220000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>864000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>778000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>583000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>750000</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44107</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42644</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42280</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41909</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41545</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41181</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40817</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1892,8 +1977,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1910,50 +1996,54 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>573000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1031000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2507000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1420000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>484000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>270000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>318000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>349000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>688000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>438000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1145000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1071000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>716000</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1993,200 +2083,215 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2476000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2577000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2400000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1952000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2173000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1723000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1675000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1542000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1620000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1684000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1497000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1378000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1321000</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5328000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5514000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4382000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3859000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3929000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3513000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3239000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2732000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2878000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3274000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2817000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2809000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2587000</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E45" s="3">
         <v>508000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>533000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>367000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>404000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>182000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1026000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>265000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>195000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>825000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>145000</v>
       </c>
       <c r="N45" s="3">
         <v>145000</v>
       </c>
       <c r="O45" s="3">
+        <v>145000</v>
+      </c>
+      <c r="P45" s="3">
         <v>156000</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8722000</v>
+      </c>
+      <c r="E46" s="3">
         <v>9630000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9822000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7598000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6990000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5688000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6258000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4888000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5381000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6221000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5604000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5403000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4780000</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>580000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2203,93 +2308,102 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10178000</v>
+      </c>
+      <c r="E48" s="3">
         <v>9192000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8368000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8128000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7282000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6169000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5568000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5170000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5176000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5130000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4053000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4022000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3823000</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15976000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16765000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17068000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17673000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>21959000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16498000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>15567000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11753000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11835000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11982000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2040000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2020000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2041000</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2329,9 +2443,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2371,51 +2488,57 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>795000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1234000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1051000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1057000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>765000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>754000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>673000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>562000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>612000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>623000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>480000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>451000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>427000</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2455,51 +2578,57 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36251000</v>
+      </c>
+      <c r="E54" s="3">
         <v>36821000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>36309000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34456000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>32918000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>29109000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28066000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22373000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23004000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23956000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12177000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11896000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11071000</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2516,8 +2645,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2534,260 +2664,279 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2594000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2483000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2225000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1876000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1926000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1694000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1698000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1511000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1662000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1806000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1359000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1372000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1264000</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1895000</v>
+      </c>
+      <c r="E58" s="3">
         <v>459000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1067000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>548000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2102000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1911000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>906000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>79000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>715000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>643000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>513000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>515000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>70000</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2010000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2371000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3033000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1810000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1485000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1426000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1428000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1172000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1158000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1348000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1138000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>943000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1040000</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6499000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5313000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6325000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4234000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5513000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5031000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4032000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2762000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3535000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3797000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3010000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2830000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2374000</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7611000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7862000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8281000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10791000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9830000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7962000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9297000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6200000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6010000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7535000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1895000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1917000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2112000</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3886000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3835000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3849000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4045000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3481000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3305000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4178000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3787000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3753000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3720000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1039000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1107000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>900000</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2827,9 +2976,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2869,9 +3021,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2911,51 +3066,57 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18118000</v>
+      </c>
+      <c r="E66" s="3">
         <v>17119000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18586000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19202000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18968000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16306000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17525000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12765000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13313000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15066000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5976000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5884000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5414000</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2972,8 +3133,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3013,9 +3175,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3055,9 +3220,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3097,9 +3265,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3139,51 +3310,57 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18760000</v>
+      </c>
+      <c r="E72" s="3">
         <v>20084000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17502000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15100000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13655000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12329000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9776000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8348000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6813000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5748000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4999000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4327000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3801000</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3223,9 +3400,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3265,9 +3445,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3307,51 +3490,57 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18133000</v>
+      </c>
+      <c r="E76" s="3">
         <v>19702000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17723000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15254000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13950000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12803000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10541000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9608000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9691000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8890000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6201000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6011000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5657000</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3391,98 +3580,107 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44107</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42644</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42280</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41909</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41545</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41181</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40817</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-648000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3238000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3047000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2061000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1980000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3974000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1774000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1768000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1220000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>864000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>778000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>583000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>750000</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3499,50 +3697,54 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1339000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1202000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1214000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1192000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1098000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>943000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>761000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>705000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>711000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>530000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>519000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>499000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>506000</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3582,9 +3784,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3624,9 +3829,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3666,9 +3874,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3708,9 +3919,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3750,51 +3964,57 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1752000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2687000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3840000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3874000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2513000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2963000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2599000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2716000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2570000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1178000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1314000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1187000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1046000</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3811,50 +4031,54 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1939000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1887000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1209000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1199000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1259000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1069000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-695000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-854000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-632000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-558000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-690000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-643000</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3894,9 +4118,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3936,51 +4163,57 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2299000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1935000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>58000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1423000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3464000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1906000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4164000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-684000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-270000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8800000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-643000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-660000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-644000</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3997,50 +4230,54 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-670000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-653000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-636000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-601000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-537000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-431000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-319000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-216000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-147000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-104000</v>
       </c>
       <c r="M96" s="3">
         <v>-104000</v>
       </c>
       <c r="N96" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-57000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-59000</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4080,9 +4317,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4122,9 +4362,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4164,133 +4407,145 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2323000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2731000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1468000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1171000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1102000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1530000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2377000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2035000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6915000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-600000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-171000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-658000</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-35000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6000</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-458000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1606000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1171000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>982000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>214000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-48000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-31000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-339000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>250000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-707000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>74000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>355000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-262000</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
